--- a/localityResults/_Central Darfur.xlsx
+++ b/localityResults/_Central Darfur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/localityResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E34F-27A2-4B45-9A1C-8C3C04EF870A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5574A-6F54-C94A-9580-39A50BF06A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zalingi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="251">
   <si>
     <t>Indicator</t>
   </si>
@@ -1116,9 +1116,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6010,9 +6018,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -10904,9 +10920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A107" sqref="A1:A107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -15798,11 +15819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -20692,13 +20719,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD75"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -22162,7 +22195,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -22182,607 +22215,607 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" t="s">
-        <v>250</v>
-      </c>
-      <c r="E75" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" t="s">
-        <v>250</v>
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>1.4029</v>
+      </c>
+      <c r="D75">
+        <v>1.2285999999999999</v>
+      </c>
+      <c r="E75">
+        <v>1.6002000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.1111</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>1.4029</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="D76">
-        <v>1.2285999999999999</v>
+        <v>0.19839999999999999</v>
       </c>
       <c r="E76">
-        <v>1.6002000000000001</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="F76">
-        <v>0.1111</v>
+        <v>7.6100000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77">
-        <v>0.34689999999999999</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.19839999999999999</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.51370000000000005</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>7.6100000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.7823</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79">
-        <v>0.7823</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D79">
-        <v>0.53159999999999996</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.97330000000000005</v>
+        <v>4.36E-2</v>
       </c>
       <c r="F79">
-        <v>0.1229</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80">
-        <v>7.1000000000000004E-3</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="E80">
-        <v>4.36E-2</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F80">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81">
-        <v>0.93149999999999999</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0.85309999999999997</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.98599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>3.5299999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83">
-        <v>6.1600000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="D83">
-        <v>6.8999999999999999E-3</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="E83">
-        <v>0.13900000000000001</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="F83">
-        <v>3.2399999999999998E-2</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84">
-        <v>4.8300000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1.3299999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>9.8599999999999993E-2</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>2.18E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E86">
-        <v>2.9000000000000001E-2</v>
+        <v>0.1268</v>
       </c>
       <c r="F86">
-        <v>5.1999999999999998E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87">
-        <v>0.06</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="D87">
-        <v>7.0000000000000001E-3</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="E87">
-        <v>0.1268</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="F87">
-        <v>3.2000000000000001E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88">
-        <v>9.2899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>3.3700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.16439999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>3.4799999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.88360000000000005</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90">
-        <v>0.88360000000000005</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0.80489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.94789999999999996</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>3.78E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.35E-2</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>1.35E-2</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>4.6699999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.0699999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>1.2999999999999999E-2</v>
+        <v>2.0684999999999998</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1.9601</v>
       </c>
       <c r="E94">
-        <v>3.6600000000000001E-2</v>
+        <v>2.1945000000000001</v>
       </c>
       <c r="F94">
-        <v>1.54E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>2.0684999999999998</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1.9601</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>2.1945000000000001</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>5.4899999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.88360000000000005</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.95840000000000003</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>4.0300000000000002E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>0.88360000000000005</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="D97">
-        <v>0.79600000000000004</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.95840000000000003</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="F97">
-        <v>4.0300000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>1.3299999999999999E-2</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="E98">
-        <v>4.1399999999999999E-2</v>
+        <v>0.95109999999999995</v>
       </c>
       <c r="F98">
-        <v>1.0200000000000001E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
       <c r="C99">
-        <v>0.88970000000000005</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D99">
-        <v>0.81089999999999995</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E99">
-        <v>0.95109999999999995</v>
+        <v>0.1399</v>
       </c>
       <c r="F99">
-        <v>4.4400000000000002E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100">
-        <v>6.25E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D100">
-        <v>6.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.1399</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F100">
-        <v>3.3700000000000001E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101">
-        <v>1.32E-2</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="E101">
-        <v>4.2000000000000003E-2</v>
+        <v>0.1479</v>
       </c>
       <c r="F101">
-        <v>1.5599999999999999E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="C102">
-        <v>7.5300000000000006E-2</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="D102">
-        <v>2.0199999999999999E-2</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="E102">
-        <v>0.1479</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="F102">
-        <v>3.3099999999999997E-2</v>
+        <v>4.07E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103">
-        <v>0.88160000000000005</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D103">
-        <v>0.79159999999999997</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0.95660000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F103">
-        <v>4.07E-2</v>
+        <v>1.52E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7.1000000000000004E-3</v>
+        <v>0.8851</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="E104">
-        <v>4.9000000000000002E-2</v>
+        <v>0.96460000000000001</v>
       </c>
       <c r="F104">
-        <v>1.52E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -22791,738 +22824,738 @@
         <v>0.8851</v>
       </c>
       <c r="D105">
-        <v>0.80249999999999999</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="E105">
-        <v>0.96460000000000001</v>
+        <v>0.9577</v>
       </c>
       <c r="F105">
-        <v>4.3200000000000002E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="C106">
-        <v>0.8851</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="D106">
-        <v>0.79969999999999997</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="E106">
-        <v>0.9577</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="F106">
-        <v>4.4400000000000002E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107">
-        <v>0.89039999999999997</v>
+        <v>0.8881</v>
       </c>
       <c r="D107">
-        <v>0.79990000000000006</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="E107">
-        <v>0.95940000000000003</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="F107">
-        <v>4.5199999999999997E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108">
-        <v>0.8881</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D108">
-        <v>0.80130000000000001</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="E108">
-        <v>0.96509999999999996</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="F108">
-        <v>0.04</v>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109">
-        <v>0.94699999999999995</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="D109">
-        <v>0.88429999999999997</v>
+        <v>0.82509999999999994</v>
       </c>
       <c r="E109">
-        <v>0.99280000000000002</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="F109">
-        <v>2.6200000000000001E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110">
-        <v>0.89929999999999999</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="D110">
-        <v>0.82509999999999994</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="E110">
-        <v>0.97230000000000005</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="F110">
-        <v>3.6900000000000002E-2</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111">
-        <v>0.89190000000000003</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D111">
-        <v>0.81379999999999997</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.95940000000000003</v>
+        <v>4.48E-2</v>
       </c>
       <c r="F111">
-        <v>4.36E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112">
-        <v>1.4E-2</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="E112">
-        <v>4.48E-2</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="F112">
-        <v>1.35E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C113">
-        <v>0.19350000000000001</v>
+        <v>138.06739999999999</v>
       </c>
       <c r="D113">
-        <v>7.9399999999999998E-2</v>
+        <v>135.75700000000001</v>
       </c>
       <c r="E113">
-        <v>0.34179999999999999</v>
+        <v>140.21010000000001</v>
       </c>
       <c r="F113">
-        <v>5.8400000000000001E-2</v>
+        <v>1.0849</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>138.06739999999999</v>
+        <v>0.15579999999999999</v>
       </c>
       <c r="D114">
-        <v>135.75700000000001</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="E114">
-        <v>140.21010000000001</v>
+        <v>0.2137</v>
       </c>
       <c r="F114">
-        <v>1.0849</v>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115">
-        <v>0.15579999999999999</v>
+        <v>0.1221</v>
       </c>
       <c r="D115">
-        <v>8.4599999999999995E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="E115">
-        <v>0.2137</v>
+        <v>0.1867</v>
       </c>
       <c r="F115">
-        <v>2.9899999999999999E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.1221</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D116">
-        <v>4.6600000000000003E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E116">
-        <v>0.1867</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F116">
-        <v>3.1600000000000003E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>3.5999999999999997E-2</v>
+        <v>-2.3073999999999999</v>
       </c>
       <c r="D117">
-        <v>1.04E-2</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="E117">
-        <v>6.7000000000000004E-2</v>
+        <v>-2.0160999999999998</v>
       </c>
       <c r="F117">
-        <v>1.2800000000000001E-2</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>-2.3073999999999999</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="D118">
-        <v>-2.6280000000000001</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="E118">
-        <v>-2.0160999999999998</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="F118">
-        <v>0.1694</v>
+        <v>5.16E-2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119">
-        <v>0.55810000000000004</v>
+        <v>0.247</v>
       </c>
       <c r="D119">
-        <v>0.45129999999999998</v>
+        <v>0.1091</v>
       </c>
       <c r="E119">
-        <v>0.63419999999999999</v>
+        <v>0.3997</v>
       </c>
       <c r="F119">
-        <v>5.16E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120">
-        <v>0.247</v>
+        <v>0.30830000000000002</v>
       </c>
       <c r="D120">
-        <v>0.1091</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="E120">
-        <v>0.3997</v>
+        <v>0.39369999999999999</v>
       </c>
       <c r="F120">
-        <v>8.7099999999999997E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>0.30830000000000002</v>
+        <v>-2.0137999999999998</v>
       </c>
       <c r="D121">
-        <v>0.17510000000000001</v>
+        <v>-2.3252999999999999</v>
       </c>
       <c r="E121">
-        <v>0.39369999999999999</v>
+        <v>-1.7474000000000001</v>
       </c>
       <c r="F121">
-        <v>6.9699999999999998E-2</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>-2.0137999999999998</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="D122">
-        <v>-2.3252999999999999</v>
+        <v>0.36909999999999998</v>
       </c>
       <c r="E122">
-        <v>-1.7474000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="F122">
-        <v>0.14899999999999999</v>
+        <v>4.7100000000000003E-2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123">
-        <v>0.46660000000000001</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="D123">
-        <v>0.36909999999999998</v>
+        <v>0.1525</v>
       </c>
       <c r="E123">
-        <v>0.5706</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="F123">
-        <v>4.7100000000000003E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
       <c r="C124">
-        <v>0.28749999999999998</v>
+        <v>0.1699</v>
       </c>
       <c r="D124">
-        <v>0.1525</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="E124">
-        <v>0.41249999999999998</v>
+        <v>0.27739999999999998</v>
       </c>
       <c r="F124">
-        <v>7.1599999999999997E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>0.1699</v>
+        <v>-0.89239999999999997</v>
       </c>
       <c r="D125">
-        <v>8.6900000000000005E-2</v>
+        <v>-1.1259999999999999</v>
       </c>
       <c r="E125">
-        <v>0.27739999999999998</v>
+        <v>-0.70169999999999999</v>
       </c>
       <c r="F125">
-        <v>4.3299999999999998E-2</v>
+        <v>0.11310000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>-0.89239999999999997</v>
+        <v>0.183</v>
       </c>
       <c r="D126">
-        <v>-1.1259999999999999</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="E126">
-        <v>-0.70169999999999999</v>
+        <v>0.27650000000000002</v>
       </c>
       <c r="F126">
-        <v>0.11310000000000001</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
       </c>
       <c r="C127">
-        <v>0.183</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D127">
-        <v>7.9799999999999996E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="E127">
-        <v>0.27650000000000002</v>
+        <v>0.24510000000000001</v>
       </c>
       <c r="F127">
-        <v>6.3299999999999995E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128">
-        <v>0.14399999999999999</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="D128">
-        <v>2.5700000000000001E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E128">
-        <v>0.24510000000000001</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="F128">
-        <v>6.6000000000000003E-2</v>
+        <v>2.35E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129">
-        <v>3.5299999999999998E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D129">
-        <v>5.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>9.3399999999999997E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="F129">
-        <v>2.35E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130">
-        <v>1.0699999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>3.7699999999999997E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="F130">
-        <v>1.12E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131">
-        <v>2.7199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>7.3400000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.26889999999999997</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133">
-        <v>0.26889999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="D133">
-        <v>0.18090000000000001</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="E133">
-        <v>0.38600000000000001</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="F133">
-        <v>5.4399999999999997E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134">
-        <v>0.83799999999999997</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="D134">
-        <v>0.66820000000000002</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="E134">
-        <v>0.91369999999999996</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="F134">
-        <v>6.3700000000000007E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135">
-        <v>7.4399999999999994E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D135">
-        <v>1.9300000000000001E-2</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="E135">
-        <v>0.15279999999999999</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="F135">
-        <v>3.6799999999999999E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136">
-        <v>0.57999999999999996</v>
+        <v>0.32019999999999998</v>
       </c>
       <c r="D136">
-        <v>0.38790000000000002</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="E136">
-        <v>0.72729999999999995</v>
+        <v>0.4698</v>
       </c>
       <c r="F136">
-        <v>8.2299999999999998E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137">
-        <v>0.32019999999999998</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="D137">
-        <v>0.21729999999999999</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="E137">
-        <v>0.4698</v>
+        <v>0.44940000000000002</v>
       </c>
       <c r="F137">
-        <v>6.6400000000000001E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138">
-        <v>0.31059999999999999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D138">
-        <v>0.20419999999999999</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>0.44940000000000002</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F138">
-        <v>6.1899999999999997E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139">
-        <v>6.25E-2</v>
+        <v>0.90569999999999995</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="E139">
-        <v>0.16900000000000001</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>4.7199999999999999E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>0.90569999999999995</v>
+        <v>0.90280000000000005</v>
       </c>
       <c r="D140">
-        <v>0.78459999999999996</v>
+        <v>0.78680000000000005</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>6.7500000000000004E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141">
-        <v>0.90280000000000005</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0.78680000000000005</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>6.3600000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -23534,15 +23567,15 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.18E-2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -23554,15 +23587,15 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>6.0600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.18E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -23582,127 +23615,127 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>3.7100000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>2.7799999999999998E-2</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>0.38890000000000002</v>
       </c>
       <c r="E146">
-        <v>9.7600000000000006E-2</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="F146">
-        <v>3.7100000000000001E-2</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
       </c>
       <c r="C147">
-        <v>0.57589999999999997</v>
+        <v>0.3911</v>
       </c>
       <c r="D147">
-        <v>0.38890000000000002</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E147">
-        <v>0.77639999999999998</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="F147">
-        <v>0.1086</v>
+        <v>7.6300000000000007E-2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148">
-        <v>0.3911</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.23499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.54020000000000001</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>7.6300000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
       <c r="C150">
-        <v>7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>8.5300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -23722,47 +23755,47 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.34589999999999999</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
       </c>
       <c r="C153">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>8.4400000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>0.34589999999999999</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>6.8900000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -23782,107 +23815,107 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
       <c r="C156">
-        <v>4.4400000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.10390000000000001</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>2.7799999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.8528</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
       </c>
       <c r="C158">
-        <v>0.73170000000000002</v>
+        <v>0.31069999999999998</v>
       </c>
       <c r="D158">
-        <v>0.57789999999999997</v>
+        <v>0.20269999999999999</v>
       </c>
       <c r="E158">
-        <v>0.8528</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="F158">
-        <v>7.0499999999999993E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
       </c>
       <c r="C159">
-        <v>0.31069999999999998</v>
+        <v>1.03E-2</v>
       </c>
       <c r="D159">
-        <v>0.20269999999999999</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>0.42249999999999999</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="F159">
-        <v>5.5199999999999999E-2</v>
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -23894,235 +23927,235 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>3.2399999999999998E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="F160">
-        <v>1.03E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161">
-        <v>1.03E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>3.2899999999999999E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="F161">
-        <v>8.0000000000000002E-3</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
       </c>
       <c r="C162">
-        <v>1.84E-2</v>
+        <v>0.13569999999999999</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="E162">
-        <v>5.5599999999999997E-2</v>
+        <v>0.2339</v>
       </c>
       <c r="F162">
-        <v>1.47E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
       </c>
       <c r="C163">
-        <v>0.13569999999999999</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="D163">
-        <v>6.9800000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E163">
-        <v>0.2339</v>
+        <v>0.2021</v>
       </c>
       <c r="F163">
-        <v>4.6800000000000001E-2</v>
+        <v>4.82E-2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>9.8500000000000004E-2</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="D164">
-        <v>1.8599999999999998E-2</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="E164">
-        <v>0.2021</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>4.82E-2</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
       <c r="C165">
-        <v>0.92859999999999998</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="D165">
-        <v>0.68110000000000004</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="F165">
-        <v>0.10589999999999999</v>
+        <v>6.83E-2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
       </c>
       <c r="C166">
-        <v>0.76119999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D166">
-        <v>0.61939999999999995</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0.89470000000000005</v>
+        <v>0.122</v>
       </c>
       <c r="F166">
-        <v>6.83E-2</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167">
-        <v>3.7999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.94510000000000005</v>
       </c>
       <c r="E167">
-        <v>0.122</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>3.61E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>4.7332999999999998</v>
       </c>
       <c r="D168">
-        <v>0.94510000000000005</v>
+        <v>4.4836</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>4.9168000000000003</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>4.7332999999999998</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="D169">
-        <v>4.4836</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>4.9168000000000003</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F169">
-        <v>0.1106</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
       </c>
       <c r="C170">
-        <v>4.1099999999999998E-2</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="E170">
-        <v>0.13800000000000001</v>
+        <v>0.32640000000000002</v>
       </c>
       <c r="F170">
-        <v>4.0500000000000001E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
       <c r="C171">
-        <v>0.20430000000000001</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>9.2899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>0.32640000000000002</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>5.1499999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -24142,7 +24175,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -24162,7 +24195,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -24182,7 +24215,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -24202,7 +24235,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -24222,7 +24255,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -24242,7 +24275,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -24262,7 +24295,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -24282,7 +24315,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -24302,7 +24335,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -24322,7 +24355,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -24342,7 +24375,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -24362,7 +24395,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -24382,7 +24415,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -24402,19 +24435,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -24422,87 +24455,87 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>5.2222</v>
       </c>
       <c r="D187">
-        <v>0.61309999999999998</v>
+        <v>4.4366000000000003</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>0.29649999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C188">
-        <v>5.2222</v>
+        <v>0.25</v>
       </c>
       <c r="D188">
-        <v>4.4366000000000003</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>5.8</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="F188">
-        <v>0.29649999999999999</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
       <c r="C189">
-        <v>0.25</v>
+        <v>0.1139</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>3.09E-2</v>
       </c>
       <c r="E189">
-        <v>0.71689999999999998</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F189">
-        <v>0.2291</v>
+        <v>4.82E-2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
       </c>
       <c r="C190">
-        <v>0.1139</v>
+        <v>0.125</v>
       </c>
       <c r="D190">
-        <v>3.09E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="E190">
-        <v>0.23080000000000001</v>
+        <v>0.25679999999999997</v>
       </c>
       <c r="F190">
-        <v>4.82E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -24511,198 +24544,198 @@
         <v>0.125</v>
       </c>
       <c r="D191">
-        <v>3.0300000000000001E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E191">
-        <v>0.25679999999999997</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="F191">
-        <v>5.7700000000000001E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
       </c>
       <c r="C192">
-        <v>0.125</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="D192">
-        <v>2.0299999999999999E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="E192">
-        <v>0.29649999999999999</v>
+        <v>0.30430000000000001</v>
       </c>
       <c r="F192">
-        <v>6.9599999999999995E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
       <c r="C193">
-        <v>0.12280000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D193">
-        <v>2.0400000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E193">
-        <v>0.30430000000000001</v>
+        <v>0.30330000000000001</v>
       </c>
       <c r="F193">
-        <v>6.6100000000000006E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="C194">
-        <v>0.125</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D194">
-        <v>1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>0.30330000000000001</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="F194">
-        <v>7.4300000000000005E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
       <c r="C195">
-        <v>9.8000000000000004E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0.21279999999999999</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="F195">
-        <v>6.1899999999999997E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
       <c r="C196">
-        <v>1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>9.8100000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>3.2899999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>2.8199999999999999E-2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
       <c r="C198">
-        <v>1.7899999999999999E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="E198">
-        <v>9.0899999999999995E-2</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="F198">
-        <v>2.8199999999999999E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>8.4199999999999997E-2</v>
+        <v>12.685700000000001</v>
       </c>
       <c r="D199">
-        <v>2.4299999999999999E-2</v>
+        <v>12.199299999999999</v>
       </c>
       <c r="E199">
-        <v>0.15640000000000001</v>
+        <v>13.1143</v>
       </c>
       <c r="F199">
-        <v>3.2399999999999998E-2</v>
+        <v>0.27529999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>12.685700000000001</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>12.199299999999999</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>13.1143</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.27529999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
@@ -24722,7 +24755,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
@@ -24742,7 +24775,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
@@ -24762,47 +24795,47 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>12.6143</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>11.814299999999999</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>13.0579</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>12.6143</v>
+        <v>0.1429</v>
       </c>
       <c r="D205">
-        <v>11.814299999999999</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>13.0579</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F205">
-        <v>0.3548</v>
+        <v>0.21179999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
@@ -24822,27 +24855,27 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
       </c>
       <c r="C207">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.21179999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
@@ -24862,47 +24895,47 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>2.35E-2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
       </c>
       <c r="C210">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="D210">
-        <v>0.89259999999999995</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>0.97860000000000003</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>2.35E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
@@ -24922,227 +24955,227 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>6.08E-2</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.10829999999999999</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>6.08E-2</v>
+        <v>249.9358</v>
       </c>
       <c r="D213">
-        <v>2.0500000000000001E-2</v>
+        <v>245.54060000000001</v>
       </c>
       <c r="E213">
-        <v>0.10829999999999999</v>
+        <v>254.71459999999999</v>
       </c>
       <c r="F213">
-        <v>2.2499999999999999E-2</v>
+        <v>2.4617</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C214">
-        <v>249.9358</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="D214">
-        <v>245.54060000000001</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="E214">
-        <v>254.71459999999999</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="F214">
-        <v>2.4617</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.12620000000000001</v>
+        <v>1.6933</v>
       </c>
       <c r="D215">
-        <v>5.1499999999999997E-2</v>
+        <v>1.5065999999999999</v>
       </c>
       <c r="E215">
-        <v>0.21879999999999999</v>
+        <v>1.9594</v>
       </c>
       <c r="F215">
-        <v>4.36E-2</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C216">
-        <v>1.6933</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>1.5065999999999999</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>1.9594</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="F216">
-        <v>0.1203</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.1159</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="E217">
-        <v>2.0400000000000001E-2</v>
+        <v>0.1988</v>
       </c>
       <c r="F217">
-        <v>4.8999999999999998E-3</v>
+        <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
       </c>
       <c r="C218">
-        <v>0.1159</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="D218">
-        <v>4.4699999999999997E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E218">
-        <v>0.1988</v>
+        <v>0.13550000000000001</v>
       </c>
       <c r="F218">
-        <v>3.7199999999999997E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
       </c>
       <c r="C219">
-        <v>5.8799999999999998E-2</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D219">
-        <v>6.8999999999999999E-3</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="E219">
-        <v>0.13550000000000001</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="F219">
-        <v>3.5499999999999997E-2</v>
+        <v>5.33E-2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
       <c r="C220">
-        <v>0.86299999999999999</v>
+        <v>2.76E-2</v>
       </c>
       <c r="D220">
-        <v>0.74980000000000002</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>0.95240000000000002</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="F220">
-        <v>5.33E-2</v>
+        <v>2.18E-2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2.76E-2</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>0.49969999999999998</v>
       </c>
       <c r="E221">
-        <v>7.7600000000000002E-2</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="F221">
-        <v>2.18E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
       <c r="C222">
-        <v>0.63160000000000005</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>0.49969999999999998</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>0.75029999999999997</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -25162,87 +25195,87 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.1701</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>0.10979999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="C225">
-        <v>0.1701</v>
+        <v>0.45519999999999999</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>0.1007</v>
       </c>
       <c r="E225">
-        <v>0.50680000000000003</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="F225">
-        <v>0.10979999999999999</v>
+        <v>0.18290000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
       </c>
       <c r="C226">
-        <v>0.45519999999999999</v>
+        <v>0.38030000000000003</v>
       </c>
       <c r="D226">
-        <v>0.1007</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E226">
-        <v>0.75960000000000005</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="F226">
-        <v>0.18290000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
       </c>
       <c r="C227">
-        <v>0.38030000000000003</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>2.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>0.71350000000000002</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
@@ -25262,7 +25295,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -25282,7 +25315,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
@@ -25302,47 +25335,47 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
       </c>
       <c r="C232">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.0699999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
@@ -25362,7 +25395,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
@@ -25382,7 +25415,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
@@ -25402,19 +25435,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -25422,161 +25455,141 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
       </c>
       <c r="C238">
-        <v>6.8999999999999999E-3</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>3.3599999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.4500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
       </c>
       <c r="C240">
-        <v>6.8999999999999999E-3</v>
+        <v>0.16109999999999999</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="E240">
-        <v>0.04</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="F240">
-        <v>1.04E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
       </c>
       <c r="C241">
-        <v>0.16109999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D241">
-        <v>4.1200000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E241">
-        <v>0.30730000000000002</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="F241">
-        <v>6.2100000000000002E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
       </c>
       <c r="C242">
-        <v>0.1</v>
+        <v>0.8357</v>
       </c>
       <c r="D242">
-        <v>7.0000000000000001E-3</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="E242">
-        <v>0.21940000000000001</v>
+        <v>0.96460000000000001</v>
       </c>
       <c r="F242">
-        <v>5.9299999999999999E-2</v>
+        <v>6.8400000000000002E-2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
       </c>
       <c r="C243">
-        <v>0.8357</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D243">
-        <v>0.71109999999999995</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>0.96460000000000001</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="F243">
-        <v>6.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244" t="s">
-        <v>10</v>
-      </c>
-      <c r="C244">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>0.11609999999999999</v>
-      </c>
-      <c r="F244">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
@@ -25590,11 +25603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -30486,11 +30505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -35382,11 +35407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -40278,9 +40309,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
